--- a/public/template/goods_export_template.XLSX
+++ b/public/template/goods_export_template.XLSX
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -423,10 +423,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>de</v>
+        <v>测试商品</v>
       </c>
       <c r="B2" t="str">
-        <v>de</v>
+        <v>而</v>
       </c>
       <c r="C2">
         <v>23</v>
@@ -435,140 +435,53 @@
         <v>4</v>
       </c>
       <c r="E2" t="str">
-        <v>sfsdf</v>
+        <v>撒打发时光发你同意黑白的个体户</v>
       </c>
       <c r="F2" t="str">
-        <v>电脑配件</v>
+        <v>p0/p1</v>
       </c>
       <c r="G2" t="str">
-        <v>新品上市/热销推荐/即将下架</v>
+        <v>新品上市</v>
       </c>
       <c r="H2" s="1">
-        <v>44405.388032407405</v>
+        <v>44407.2378125</v>
       </c>
       <c r="I2" s="1">
-        <v>44406.467465277776</v>
+        <v>44407.23806712963</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>de</v>
+        <v>测试商品</v>
       </c>
       <c r="B3" t="str">
-        <v>ff</v>
+        <v>的发表</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" t="str">
-        <v>sfsdf</v>
+        <v>撒打发时光发你同意黑白的个体户</v>
       </c>
       <c r="F3" t="str">
-        <v>电脑配件</v>
+        <v>p0/p1</v>
       </c>
       <c r="G3" t="str">
-        <v>新品上市/热销推荐/即将下架</v>
+        <v>新品上市</v>
       </c>
       <c r="H3" s="1">
-        <v>44405.388032407405</v>
+        <v>44407.2378125</v>
       </c>
       <c r="I3" s="1">
-        <v>44406.467465277776</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>test</v>
-      </c>
-      <c r="B4" t="str">
-        <v>vf</v>
-      </c>
-      <c r="C4">
-        <v>43</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="str">
-        <v>士大夫v发v发二分v让我把地方verb按抚法乳房</v>
-      </c>
-      <c r="F4" t="str">
-        <v>电脑配件/显示器/三星</v>
-      </c>
-      <c r="G4" t="str">
-        <v>新品上市/即将下架</v>
-      </c>
-      <c r="H4" s="1">
-        <v>44406.42070601852</v>
-      </c>
-      <c r="I4" s="1">
-        <v>44406.46365740741</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>test</v>
-      </c>
-      <c r="B5" t="str">
-        <v>通过</v>
-      </c>
-      <c r="C5">
-        <v>23</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="str">
-        <v>士大夫v发v发二分v让我把地方verb按抚法乳房</v>
-      </c>
-      <c r="F5" t="str">
-        <v>电脑配件/显示器/三星</v>
-      </c>
-      <c r="G5" t="str">
-        <v>新品上市/即将下架</v>
-      </c>
-      <c r="H5" s="1">
-        <v>44406.42070601852</v>
-      </c>
-      <c r="I5" s="1">
-        <v>44406.46365740741</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>test</v>
-      </c>
-      <c r="B6" t="str">
-        <v>东北人方大同</v>
-      </c>
-      <c r="C6">
-        <v>43</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6" t="str">
-        <v>士大夫v发v发二分v让我把地方verb按抚法乳房</v>
-      </c>
-      <c r="F6" t="str">
-        <v>电脑配件/显示器/三星</v>
-      </c>
-      <c r="G6" t="str">
-        <v>新品上市/即将下架</v>
-      </c>
-      <c r="H6" s="1">
-        <v>44406.42070601852</v>
-      </c>
-      <c r="I6" s="1">
-        <v>44406.46365740741</v>
+        <v>44407.23806712963</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/template/goods_export_template.XLSX
+++ b/public/template/goods_export_template.XLSX
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -423,65 +423,94 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>测试商品</v>
+        <v>de</v>
       </c>
       <c r="B2" t="str">
-        <v>而</v>
+        <v>1a</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>323</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2" t="str">
-        <v>撒打发时光发你同意黑白的个体户</v>
+        <v>wewewf</v>
       </c>
       <c r="F2" t="str">
-        <v>p0/p1</v>
+        <v>rf</v>
       </c>
       <c r="G2" t="str">
-        <v>新品上市</v>
+        <v>de/gttg</v>
       </c>
       <c r="H2" s="1">
-        <v>44407.2378125</v>
+        <v>44431.25144675926</v>
       </c>
       <c r="I2" s="1">
-        <v>44407.23806712963</v>
+        <v>44431.25144675926</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>测试商品</v>
+        <v>de</v>
       </c>
       <c r="B3" t="str">
-        <v>的发表</v>
+        <v>re</v>
       </c>
       <c r="C3">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" t="str">
+        <v>wewewf</v>
+      </c>
+      <c r="F3" t="str">
+        <v>rf</v>
+      </c>
+      <c r="G3" t="str">
+        <v>de/gttg</v>
+      </c>
+      <c r="H3" s="1">
+        <v>44431.25144675926</v>
+      </c>
+      <c r="I3" s="1">
+        <v>44431.25144675926</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>de</v>
+      </c>
+      <c r="B4" t="str">
+        <v>de</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="E3" t="str">
-        <v>撒打发时光发你同意黑白的个体户</v>
-      </c>
-      <c r="F3" t="str">
-        <v>p0/p1</v>
-      </c>
-      <c r="G3" t="str">
-        <v>新品上市</v>
-      </c>
-      <c r="H3" s="1">
-        <v>44407.2378125</v>
-      </c>
-      <c r="I3" s="1">
-        <v>44407.23806712963</v>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="str">
+        <v>qwe</v>
+      </c>
+      <c r="F4" t="str">
+        <v>de/dee2</v>
+      </c>
+      <c r="G4" t="str">
+        <v>de/gttg</v>
+      </c>
+      <c r="H4" s="1">
+        <v>44430.193506944444</v>
+      </c>
+      <c r="I4" s="1">
+        <v>44430.674212962964</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I4"/>
   </ignoredErrors>
 </worksheet>
 </file>